--- a/results/binary/37/automl.xlsx
+++ b/results/binary/37/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:08</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -585,65 +615,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.636</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.641</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.495</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.013</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.389</t>
+          <t>0.391</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.636</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>0.503</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.643</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.500</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-0.060</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.641</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.990</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.495</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -657,47 +702,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.783</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.744</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.512</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0.754</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.528</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.763</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.792</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.787</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.534</t>
+          <t>0.519</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.800</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -707,17 +752,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.754</t>
+          <t>0.744</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:14</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:14:32</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:00:33</t>
         </is>
       </c>
     </row>
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:10:05</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:11:30</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:02</t>
         </is>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:02</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:09:59</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -945,65 +1050,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.786</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.527</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.842</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.745</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>00:08:59</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,65 +1137,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.753</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.764</t>
+          <t>0.664</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.544</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.445</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.524</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.753</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.748</t>
+          <t>0.592</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.448</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.667</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.848</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.544</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:09:53</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:09:54</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>00:00:10</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/binary/37/automl.xlsx
+++ b/results/binary/37/automl.xlsx
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.801 (0.758 Â± 0.021)</t>
+          <t>0.801 (0.759 Â± 0.021)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:11:09 (00:11:41 Â± 00:00:19)</t>
+          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/binary/37/automl.xlsx
+++ b/results/binary/37/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.836 (0.832 Â± 0.002)</t>
+          <t>0.836 (0.832 ± 0.002)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:54 (00:01:37 Â± 00:00:46)</t>
+          <t>00:00:54 (00:01:37 ± 00:00:46)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.804 (0.744 Â± 0.029)</t>
+          <t>0.804 (0.744 ± 0.029)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:22 Â± 00:00:09)</t>
+          <t>00:00:10 (00:00:22 ± 00:00:09)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.829 (0.729 Â± 0.044)</t>
+          <t>0.829 (0.729 ± 0.044)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:16 (00:00:23 Â± 00:00:08)</t>
+          <t>00:00:16 (00:00:23 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.794 (0.747 Â± 0.035)</t>
+          <t>0.794 (0.747 ± 0.035)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:14 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:14 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.800 (0.760 Â± 0.024)</t>
+          <t>0.800 (0.760 ± 0.024)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:55 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:55 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.815 (0.738 Â± 0.039)</t>
+          <t>0.815 (0.738 ± 0.039)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.789 (0.734 Â± 0.054)</t>
+          <t>0.789 (0.734 ± 0.054)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:02:54 (00:05:13 Â± 00:01:23)</t>
+          <t>00:02:54 (00:05:13 ± 00:01:23)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.782 (0.745 Â± 0.032)</t>
+          <t>0.782 (0.745 ± 0.032)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.793 (0.748 Â± 0.032)</t>
+          <t>0.793 (0.748 ± 0.032)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:18 (00:04:16 Â± 00:00:54)</t>
+          <t>00:00:18 (00:04:16 ± 00:00:54)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.794 (0.712 Â± 0.064)</t>
+          <t>0.794 (0.712 ± 0.064)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:02 Â± 00:00:00)</t>
+          <t>00:05:01 (00:05:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.231 (0.176 Â± 0.024)</t>
+          <t>0.231 (0.176 ± 0.024)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:03:02 (00:03:12 Â± 00:00:06)</t>
+          <t>00:03:02 (00:03:12 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.808 (0.732 Â± 0.041)</t>
+          <t>0.808 (0.732 ± 0.041)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.801 (0.747 Â± 0.035)</t>
+          <t>0.801 (0.747 ± 0.035)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:21 (00:00:23 Â± 00:00:00)</t>
+          <t>00:00:21 (00:00:23 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.783 (0.751 Â± 0.030)</t>
+          <t>0.783 (0.751 ± 0.030)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:27 (00:01:26 Â± 00:01:05)</t>
+          <t>00:00:27 (00:01:26 ± 00:01:05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.801 (0.759 Â± 0.021)</t>
+          <t>0.801 (0.759 ± 0.021)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.792 (0.748 Â± 0.029)</t>
+          <t>0.792 (0.748 ± 0.029)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:06 Â± 00:00:08)</t>
+          <t>00:05:00 (00:05:06 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
